--- a/sheets/traces_sheets.xlsx
+++ b/sheets/traces_sheets.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="14">
   <si>
-    <t>SCENARIO</t>
+    <t>EXPANSION TECHNIQUE</t>
   </si>
   <si>
     <t>NUMBER OF ADDED SYNSETS</t>
@@ -32,31 +32,31 @@
     <t>TRACES CAPTURED BY ALL</t>
   </si>
   <si>
-    <t>SB</t>
+    <t>BASE</t>
   </si>
   <si>
-    <t>SW</t>
+    <t>WFE</t>
   </si>
   <si>
-    <t>SC</t>
+    <t>CFE</t>
   </si>
   <si>
-    <t>SW-n</t>
+    <t>WNE</t>
   </si>
   <si>
-    <t>SC-n</t>
+    <t>CNE</t>
   </si>
   <si>
-    <t>SW-s</t>
+    <t>WSE</t>
   </si>
   <si>
-    <t>SC-s</t>
+    <t>CSE</t>
   </si>
   <si>
-    <t>SW-ns</t>
+    <t>WNSE</t>
   </si>
   <si>
-    <t>SC-ns</t>
+    <t>CNSE</t>
   </si>
 </sst>
 </file>
@@ -127,17 +127,17 @@
     <worksheetSource ref="A1:E124" sheet="Página1"/>
   </cacheSource>
   <cacheFields>
-    <cacheField name="SCENARIO" numFmtId="0">
+    <cacheField name="EXPANSION TECHNIQUE" numFmtId="0">
       <sharedItems>
-        <s v="SB"/>
-        <s v="SW"/>
-        <s v="SC"/>
-        <s v="SW-n"/>
-        <s v="SC-n"/>
-        <s v="SW-s"/>
-        <s v="SC-s"/>
-        <s v="SW-ns"/>
-        <s v="SC-ns"/>
+        <s v="BASE"/>
+        <s v="WFE"/>
+        <s v="CFE"/>
+        <s v="WNE"/>
+        <s v="CNE"/>
+        <s v="WSE"/>
+        <s v="CSE"/>
+        <s v="WNSE"/>
+        <s v="CNSE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NUMBER OF ADDED SYNSETS" numFmtId="0">
@@ -282,7 +282,7 @@
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica 1" cacheId="0" dataCaption="" rowGrandTotals="0" compact="0" compactData="0">
   <location ref="A1:F44" firstHeaderRow="0" firstDataRow="5" firstDataCol="0"/>
   <pivotFields>
-    <pivotField name="SCENARIO" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
+    <pivotField name="EXPANSION TECHNIQUE" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items>
         <item x="0"/>
         <item x="2"/>
@@ -645,7 +645,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
+    <col customWidth="1" min="1" max="1" width="24.86"/>
     <col customWidth="1" min="2" max="2" width="29.43"/>
     <col customWidth="1" min="3" max="3" width="7.57"/>
     <col customWidth="1" min="4" max="4" width="24.86"/>
